--- a/abt263_hio_tidy.xlsx
+++ b/abt263_hio_tidy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\Rcode\abt263\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Intmed_Shared\Shared\gi\Restricted\higgins_lab\Eva_Clean\AbbVie_ABT_Bcl2_inhibitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="22035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11475" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="abt263_hio_geneexp_tidy" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="140">
   <si>
     <t>sample_number</t>
   </si>
@@ -426,13 +426,44 @@
   <si>
     <t>norm_densitometry</t>
   </si>
+  <si>
+    <t>Ttest vs T</t>
+  </si>
+  <si>
+    <t>T+Spiro</t>
+  </si>
+  <si>
+    <t>T+10 uM Tofa</t>
+  </si>
+  <si>
+    <t>T+1 uM ABT-263</t>
+  </si>
+  <si>
+    <t>T+3 uM ABT-263</t>
+  </si>
+  <si>
+    <t>T+10 uM ABT-263</t>
+  </si>
+  <si>
+    <t>T+30 uM ABT-263</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -459,8 +490,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22991,19 +23026,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23028,8 +23065,11 @@
       <c r="H1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -23054,8 +23094,16 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="4">
+        <f>TTEST(H2:H4,H5:H7,2,2)</f>
+        <v>1.0576712180783979E-5</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -23080,8 +23128,16 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="2">
+        <f>TTEST(H2:H4,H8:H10,2,2)</f>
+        <v>0.7672644728882565</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -23106,8 +23162,16 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="2">
+        <f>TTEST(H2:H4,H11:H13,2,2)</f>
+        <v>0.44043587093983472</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -23132,8 +23196,16 @@
       <c r="H5">
         <v>3.5230323671639006E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="2">
+        <f>TTEST(H2:H4,H14:H16,2,2)</f>
+        <v>0.47470934631707712</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -23158,8 +23230,16 @@
       <c r="H6">
         <v>0.11531872180117578</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" s="4">
+        <f>TTEST(H2:H4,H17:H19,2,2)</f>
+        <v>1.0694081115753377E-2</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -23184,8 +23264,16 @@
       <c r="H7">
         <v>2.0148688912458197E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="4">
+        <f>TTEST(H2:H4,H20:H22,2,2)</f>
+        <v>4.6211379159495018E-4</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -23210,8 +23298,9 @@
       <c r="H8">
         <v>1.1055443380692735</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -23237,7 +23326,7 @@
         <v>0.8324416045460642</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>126</v>
       </c>
@@ -23263,7 +23352,7 @@
         <v>1.1578972014478373</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -23289,7 +23378,7 @@
         <v>1.0151041502181255</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -23315,7 +23404,7 @@
         <v>0.9823351042970786</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -23341,7 +23430,7 @@
         <v>1.0615439254373655</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -23367,7 +23456,7 @@
         <v>0.24059619323598397</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -23393,7 +23482,7 @@
         <v>0.96313989732843786</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -23580,5 +23669,6 @@
     <sortCondition ref="B2:B22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>